--- a/Uploads/10_year_tips_yield.xlsx
+++ b/Uploads/10_year_tips_yield.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5868"/>
+  <dimension ref="A1:B5869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46903,6 +46903,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5869">
+      <c r="A5869" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5869" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
